--- a/doc/pdf/src/test/API TEST.xlsx
+++ b/doc/pdf/src/test/API TEST.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aleksandr_work\dev\Erlang\E-message3\doc\pdf\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aleksandr_work\dev\Erlang\E-message3\doc\pdf\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Создать пользователя</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>отправить диалог с несуществующими участниками</t>
-  </si>
-  <si>
-    <t>сделать запрос диалога для несуществующего валидного пользователя</t>
   </si>
   <si>
     <t>совершить выход из несуществующего диалога</t>
@@ -539,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,12 +555,12 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -574,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -582,28 +579,26 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="D6" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -619,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -629,7 +624,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,15 +640,15 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -669,12 +664,12 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -682,15 +677,15 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -698,25 +693,25 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,17 +729,17 @@
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -765,17 +760,17 @@
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -793,22 +788,22 @@
     </row>
     <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -826,27 +821,27 @@
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,12 +859,12 @@
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,22 +882,22 @@
     </row>
     <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/pdf/src/test/API TEST.xlsx
+++ b/doc/pdf/src/test/API TEST.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Создать пользователя</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>Получить сообщение, в котором пользователь не является адресантом и не является адресатом</t>
+  </si>
+  <si>
+    <t>Удаление пользователя</t>
+  </si>
+  <si>
+    <t>удаление с невалидными данными</t>
+  </si>
+  <si>
+    <t>удаление валидного отсутствующего пользователя</t>
   </si>
 </sst>
 </file>
@@ -534,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,274 +638,294 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>16</v>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>21</v>
+      <c r="B14" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>23</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>53</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B53" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B62" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
         <v>35</v>
       </c>
     </row>

--- a/doc/pdf/src/test/API TEST.xlsx
+++ b/doc/pdf/src/test/API TEST.xlsx
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/pdf/src/test/API TEST.xlsx
+++ b/doc/pdf/src/test/API TEST.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>Создать пользователя</t>
   </si>
@@ -198,6 +198,66 @@
   </si>
   <si>
     <t>удаление валидного отсутствующего пользователя</t>
+  </si>
+  <si>
+    <t>выйти из d1, проверить, что сообщения остались</t>
+  </si>
+  <si>
+    <t>выйти из d3</t>
+  </si>
+  <si>
+    <t>получить m3</t>
+  </si>
+  <si>
+    <t>получить m5</t>
+  </si>
+  <si>
+    <t>Примечания</t>
+  </si>
+  <si>
+    <t>взять из d2, проверить</t>
+  </si>
+  <si>
+    <t>взять из d3, проверить</t>
+  </si>
+  <si>
+    <t>написать в d1</t>
+  </si>
+  <si>
+    <t>написать в d3</t>
+  </si>
+  <si>
+    <t>написать в d2</t>
+  </si>
+  <si>
+    <t>прочитать m4</t>
+  </si>
+  <si>
+    <t>прочитать m2</t>
+  </si>
+  <si>
+    <t>прочитать m3</t>
+  </si>
+  <si>
+    <t>поменять текст в m4, проверить, что разница применилась</t>
+  </si>
+  <si>
+    <t>редактировать m2</t>
+  </si>
+  <si>
+    <t>удалить m4</t>
+  </si>
+  <si>
+    <t>удалить m2</t>
+  </si>
+  <si>
+    <t>удалить случайный номер</t>
+  </si>
+  <si>
+    <t>удалить m5 для d1</t>
+  </si>
+  <si>
+    <t>выйти из d4, проверить, что он удалён, выйти из d2, проверить, что диалог удалён, сообщения уничтожены</t>
   </si>
 </sst>
 </file>
@@ -543,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +623,9 @@
       <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="D1" t="s">
         <v>36</v>
       </c>
@@ -710,223 +773,283 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B54" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
